--- a/08. Population/data/draw_korea_raw.xlsx
+++ b/08. Population/data/draw_korea_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Data-Analysis\Data-Analysis\08. Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030530C-A4C4-4D05-893F-9BD5DC959CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB530D29-EB28-4A43-B675-623CE987EB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="1515" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30975" yWindow="2490" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -848,7 +848,7 @@
     <t>서귀포</t>
   </si>
   <si>
-    <t>인천 미추홀구</t>
+    <t>인천 미추홀</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1422,8 +1422,8 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O28"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
